--- a/import_json/teste.xlsx
+++ b/import_json/teste.xlsx
@@ -27,35 +27,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>phone1</t>
-  </si>
-  <si>
-    <t>phone2</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>Carlos</t>
   </si>
   <si>
-    <t>Rua da Mata</t>
-  </si>
-  <si>
     <t>São Paulo</t>
   </si>
   <si>
@@ -68,7 +44,55 @@
     <t>Joao</t>
   </si>
   <si>
-    <t>Rua 234</t>
+    <t>Titulo</t>
+  </si>
+  <si>
+    <t>Endereco</t>
+  </si>
+  <si>
+    <t>Cidade</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Telefone 1</t>
+  </si>
+  <si>
+    <t>Telefone 2</t>
+  </si>
+  <si>
+    <t>Rio de Janeiro</t>
+  </si>
+  <si>
+    <t>RJ</t>
+  </si>
+  <si>
+    <t>Ricardo</t>
+  </si>
+  <si>
+    <t>Rodrigo</t>
+  </si>
+  <si>
+    <t>Bettina</t>
+  </si>
+  <si>
+    <t>Rua da Mata, 25</t>
+  </si>
+  <si>
+    <t>Rua Chile, 82</t>
+  </si>
+  <si>
+    <t>Rua da Sol, 72</t>
+  </si>
+  <si>
+    <t>Rua Brasil, 22</t>
+  </si>
+  <si>
+    <t>Rua Horacio, 31</t>
   </si>
 </sst>
 </file>
@@ -420,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -431,8 +455,7 @@
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
@@ -443,42 +466,42 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>29330</v>
@@ -489,24 +512,93 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>29330</v>
       </c>
       <c r="G3">
+        <v>9927472</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>29330</v>
+      </c>
+      <c r="G4">
+        <v>9927472</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>29330</v>
+      </c>
+      <c r="G5">
+        <v>9927472</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>29330</v>
+      </c>
+      <c r="G6">
         <v>9927472</v>
       </c>
     </row>
